--- a/Final_project_data.xlsx
+++ b/Final_project_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claradong/Documents/GitHub/BMIN503_Final_Project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="1460" windowWidth="25600" windowHeight="19820"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Clinical Data Dictionary" sheetId="17" r:id="rId1"/>
@@ -16,8 +21,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TCIA Outcomes Subset'!$A$1:$H$226</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TCIA Patient Clinical Subset'!$A$1:$L$226</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -712,21 +720,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -744,43 +737,19 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -796,6 +765,45 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -876,6 +884,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1203,11 +1216,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="21" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="21" customWidth="1"/>
@@ -1216,537 +1229,520 @@
     <col min="5" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="36" customHeight="1">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="15">
+    <row r="2" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B2" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15">
+    <row r="3" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B3" s="20"/>
     </row>
-    <row r="4" spans="2:4" s="42" customFormat="1" ht="15">
-      <c r="B4" s="41" t="s">
+    <row r="4" spans="2:4" s="37" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="42" customFormat="1" ht="15">
-      <c r="B5" s="41"/>
-    </row>
-    <row r="6" spans="2:4" ht="15">
+    <row r="5" spans="2:4" s="37" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="36"/>
+    </row>
+    <row r="6" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B6" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="60">
+    <row r="7" spans="2:4" ht="65" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="38" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15">
+    <row r="8" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="2:4" ht="16" thickBot="1">
-      <c r="B9" s="44"/>
-    </row>
-    <row r="10" spans="2:4" ht="16" thickBot="1">
-      <c r="B10" s="45" t="s">
+    <row r="9" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="39"/>
+    </row>
+    <row r="10" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="74" customHeight="1">
-      <c r="B11" s="47" t="s">
+    <row r="11" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="16" thickBot="1">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50" t="s">
+    <row r="12" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="74" customHeight="1">
-      <c r="B13" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="51" t="s">
+    <row r="13" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="16" thickBot="1">
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54" t="s">
+    <row r="14" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="16" thickBot="1">
+    <row r="15" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-    </row>
-    <row r="16" spans="2:4" ht="16" thickBot="1">
-      <c r="B16" s="58" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="56"/>
+    </row>
+    <row r="16" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15">
-      <c r="B17" s="47" t="s">
+    <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B17" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15">
-      <c r="B18" s="59"/>
-      <c r="C18" s="48" t="s">
+    <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B18" s="53"/>
+      <c r="C18" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="59"/>
-    </row>
-    <row r="19" spans="2:4" ht="15">
-      <c r="B19" s="59"/>
-      <c r="C19" s="48" t="s">
+      <c r="D18" s="53"/>
+    </row>
+    <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B19" s="53"/>
+      <c r="C19" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="59"/>
-    </row>
-    <row r="20" spans="2:4" ht="15">
-      <c r="B20" s="59"/>
-      <c r="C20" s="48" t="s">
+      <c r="D19" s="53"/>
+    </row>
+    <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B20" s="53"/>
+      <c r="C20" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="59"/>
-    </row>
-    <row r="21" spans="2:4" ht="15">
-      <c r="B21" s="59"/>
-      <c r="C21" s="48" t="s">
+      <c r="D20" s="53"/>
+    </row>
+    <row r="21" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B21" s="53"/>
+      <c r="C21" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="59"/>
-    </row>
-    <row r="22" spans="2:4" ht="15">
-      <c r="B22" s="59"/>
-      <c r="C22" s="48" t="s">
+      <c r="D21" s="53"/>
+    </row>
+    <row r="22" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B22" s="53"/>
+      <c r="C22" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="59"/>
-    </row>
-    <row r="23" spans="2:4" ht="16" thickBot="1">
-      <c r="B23" s="49"/>
-      <c r="C23" s="54" t="s">
+      <c r="D22" s="53"/>
+    </row>
+    <row r="23" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="54"/>
+      <c r="C23" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="49"/>
-    </row>
-    <row r="24" spans="2:4" ht="16" thickBot="1">
-      <c r="B24" s="44"/>
-    </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" thickBot="1">
+      <c r="D23" s="54"/>
+    </row>
+    <row r="24" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="39"/>
+    </row>
+    <row r="25" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="60"/>
-    </row>
-    <row r="26" spans="2:4" ht="30">
-      <c r="B26" s="47" t="s">
+      <c r="C25" s="56"/>
+      <c r="D25" s="47"/>
+    </row>
+    <row r="26" spans="2:4" ht="32" x14ac:dyDescent="0.15">
+      <c r="B26" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15">
-      <c r="B27" s="59"/>
-      <c r="C27" s="48" t="s">
+    <row r="27" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B27" s="53"/>
+      <c r="C27" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="59"/>
-    </row>
-    <row r="28" spans="2:4" ht="15">
-      <c r="B28" s="59"/>
-      <c r="C28" s="48" t="s">
+      <c r="D27" s="53"/>
+    </row>
+    <row r="28" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B28" s="53"/>
+      <c r="C28" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="59"/>
-    </row>
-    <row r="29" spans="2:4" ht="16" thickBot="1">
-      <c r="B29" s="49"/>
-      <c r="C29" s="50" t="s">
+      <c r="D28" s="53"/>
+    </row>
+    <row r="29" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="54"/>
+      <c r="C29" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="49"/>
-    </row>
-    <row r="30" spans="2:4" ht="30">
-      <c r="B30" s="47" t="s">
+      <c r="D29" s="54"/>
+    </row>
+    <row r="30" spans="2:4" ht="32" x14ac:dyDescent="0.15">
+      <c r="B30" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15">
-      <c r="B31" s="59"/>
-      <c r="C31" s="48" t="s">
+    <row r="31" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B31" s="53"/>
+      <c r="C31" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="59"/>
-    </row>
-    <row r="32" spans="2:4" ht="15">
-      <c r="B32" s="59"/>
-      <c r="C32" s="48" t="s">
+      <c r="D31" s="53"/>
+    </row>
+    <row r="32" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B32" s="53"/>
+      <c r="C32" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="59"/>
-    </row>
-    <row r="33" spans="2:4" ht="16" thickBot="1">
-      <c r="B33" s="49"/>
-      <c r="C33" s="50" t="s">
+      <c r="D32" s="53"/>
+    </row>
+    <row r="33" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="54"/>
+      <c r="C33" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="49"/>
-    </row>
-    <row r="34" spans="2:4" ht="15">
-      <c r="B34" s="47" t="s">
+      <c r="D33" s="54"/>
+    </row>
+    <row r="34" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B34" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15">
-      <c r="B35" s="59"/>
-      <c r="C35" s="48" t="s">
+    <row r="35" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B35" s="53"/>
+      <c r="C35" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="59"/>
-    </row>
-    <row r="36" spans="2:4" ht="15">
-      <c r="B36" s="59"/>
-      <c r="C36" s="48" t="s">
+      <c r="D35" s="53"/>
+    </row>
+    <row r="36" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B36" s="53"/>
+      <c r="C36" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="59"/>
-    </row>
-    <row r="37" spans="2:4" ht="31" thickBot="1">
-      <c r="B37" s="49"/>
-      <c r="C37" s="50" t="s">
+      <c r="D36" s="53"/>
+    </row>
+    <row r="37" spans="2:4" ht="33" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="54"/>
+      <c r="C37" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="49"/>
-    </row>
-    <row r="38" spans="2:4" ht="30">
-      <c r="B38" s="47" t="s">
+      <c r="D37" s="54"/>
+    </row>
+    <row r="38" spans="2:4" ht="32" x14ac:dyDescent="0.15">
+      <c r="B38" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="15">
-      <c r="B39" s="59"/>
-      <c r="C39" s="48" t="s">
+    <row r="39" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B39" s="53"/>
+      <c r="C39" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="59"/>
-    </row>
-    <row r="40" spans="2:4" ht="15">
-      <c r="B40" s="59"/>
-      <c r="C40" s="48" t="s">
+      <c r="D39" s="53"/>
+    </row>
+    <row r="40" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B40" s="53"/>
+      <c r="C40" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="59"/>
-    </row>
-    <row r="41" spans="2:4" ht="16" thickBot="1">
-      <c r="B41" s="49"/>
-      <c r="C41" s="50" t="s">
+      <c r="D40" s="53"/>
+    </row>
+    <row r="41" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="54"/>
+      <c r="C41" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="49"/>
-    </row>
-    <row r="42" spans="2:4" ht="15">
-      <c r="B42" s="47" t="s">
+      <c r="D41" s="54"/>
+    </row>
+    <row r="42" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B42" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="48" t="s">
+      <c r="C42" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="15">
-      <c r="B43" s="59"/>
-      <c r="C43" s="48" t="s">
+    <row r="43" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B43" s="53"/>
+      <c r="C43" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="59"/>
-    </row>
-    <row r="44" spans="2:4" ht="15">
-      <c r="B44" s="59"/>
-      <c r="C44" s="48" t="s">
+      <c r="D43" s="53"/>
+    </row>
+    <row r="44" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B44" s="53"/>
+      <c r="C44" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="D44" s="59"/>
-    </row>
-    <row r="45" spans="2:4" ht="16" thickBot="1">
-      <c r="B45" s="49"/>
-      <c r="C45" s="50" t="s">
+      <c r="D44" s="53"/>
+    </row>
+    <row r="45" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="54"/>
+      <c r="C45" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="49"/>
-    </row>
-    <row r="46" spans="2:4" ht="15">
-      <c r="B46" s="47" t="s">
+      <c r="D45" s="54"/>
+    </row>
+    <row r="46" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B46" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="15">
-      <c r="B47" s="59"/>
-      <c r="C47" s="48" t="s">
+    <row r="47" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B47" s="53"/>
+      <c r="C47" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="59"/>
-    </row>
-    <row r="48" spans="2:4" ht="15">
-      <c r="B48" s="59"/>
-      <c r="C48" s="48" t="s">
+      <c r="D47" s="53"/>
+    </row>
+    <row r="48" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B48" s="53"/>
+      <c r="C48" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="59"/>
-    </row>
-    <row r="49" spans="2:4" ht="16" thickBot="1">
-      <c r="B49" s="49"/>
-      <c r="C49" s="50" t="s">
+      <c r="D48" s="53"/>
+    </row>
+    <row r="49" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="54"/>
+      <c r="C49" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="49"/>
-    </row>
-    <row r="50" spans="2:4" ht="30">
-      <c r="B50" s="47" t="s">
+      <c r="D49" s="54"/>
+    </row>
+    <row r="50" spans="2:4" ht="32" x14ac:dyDescent="0.15">
+      <c r="B50" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="15">
-      <c r="B51" s="59"/>
-      <c r="C51" s="48" t="s">
+    <row r="51" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B51" s="53"/>
+      <c r="C51" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="59"/>
-    </row>
-    <row r="52" spans="2:4" ht="16" thickBot="1">
-      <c r="B52" s="49"/>
-      <c r="C52" s="50" t="s">
+      <c r="D51" s="53"/>
+    </row>
+    <row r="52" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="54"/>
+      <c r="C52" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="49"/>
-    </row>
-    <row r="53" spans="2:4" ht="15">
-      <c r="B53" s="47" t="s">
+      <c r="D52" s="54"/>
+    </row>
+    <row r="53" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B53" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C53" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="47" t="s">
+      <c r="D53" s="52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="15">
-      <c r="B54" s="59"/>
-      <c r="C54" s="48" t="s">
+    <row r="54" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B54" s="53"/>
+      <c r="C54" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="59"/>
-    </row>
-    <row r="55" spans="2:4" ht="16" thickBot="1">
-      <c r="B55" s="49"/>
-      <c r="C55" s="50" t="s">
+      <c r="D54" s="53"/>
+    </row>
+    <row r="55" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="54"/>
+      <c r="C55" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="49"/>
-    </row>
-    <row r="56" spans="2:4" ht="14" thickBot="1">
-      <c r="B56" s="61"/>
-    </row>
-    <row r="57" spans="2:4" ht="16" thickBot="1">
+      <c r="D55" s="54"/>
+    </row>
+    <row r="56" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="48"/>
+    </row>
+    <row r="57" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B57" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="60"/>
-    </row>
-    <row r="58" spans="2:4" ht="30">
-      <c r="B58" s="62" t="s">
+      <c r="C57" s="56"/>
+      <c r="D57" s="47"/>
+    </row>
+    <row r="58" spans="2:4" ht="32" x14ac:dyDescent="0.15">
+      <c r="B58" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="15">
-      <c r="B59" s="62" t="s">
+    <row r="59" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B59" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="59"/>
-    </row>
-    <row r="60" spans="2:4" ht="15">
-      <c r="B60" s="62" t="s">
+      <c r="D59" s="53"/>
+    </row>
+    <row r="60" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B60" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="48" t="s">
+      <c r="C60" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="59"/>
-    </row>
-    <row r="61" spans="2:4" ht="15">
-      <c r="B61" s="62" t="s">
+      <c r="D60" s="53"/>
+    </row>
+    <row r="61" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B61" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="48" t="s">
+      <c r="C61" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="D61" s="59"/>
-    </row>
-    <row r="62" spans="2:4" ht="15">
-      <c r="B62" s="62" t="s">
+      <c r="D61" s="53"/>
+    </row>
+    <row r="62" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B62" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="59"/>
-    </row>
-    <row r="63" spans="2:4" ht="15">
-      <c r="B63" s="62"/>
-      <c r="C63" s="48" t="s">
+      <c r="D62" s="53"/>
+    </row>
+    <row r="63" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B63" s="49"/>
+      <c r="C63" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="59"/>
-    </row>
-    <row r="64" spans="2:4" ht="16" thickBot="1">
-      <c r="B64" s="58"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="49"/>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-    </row>
-    <row r="66" spans="2:4" ht="15">
+      <c r="D63" s="53"/>
+    </row>
+    <row r="64" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="46"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="54"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+    </row>
+    <row r="66" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B66" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="15">
+    <row r="67" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B67" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="15">
+    <row r="68" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B68" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="15">
+    <row r="69" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B69" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="15">
+    <row r="70" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B70" s="20" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="D30:D33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="B11:B12"/>
@@ -1756,14 +1752,26 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="D17:D23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D58:D64"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="B57:C57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1778,7 +1786,7 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="27" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="27" customWidth="1"/>
@@ -1794,7 +1802,7 @@
     <col min="13" max="16384" width="8.1640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="23" customFormat="1" ht="24">
+    <row r="1" spans="1:16" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
         <v>43</v>
       </c>
@@ -1844,7 +1852,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="27">
         <v>1001</v>
       </c>
@@ -1896,7 +1904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="27">
         <v>1002</v>
       </c>
@@ -1948,7 +1956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="27">
         <v>1003</v>
       </c>
@@ -2000,7 +2008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="27">
         <v>1004</v>
       </c>
@@ -2052,7 +2060,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="27">
         <v>1005</v>
       </c>
@@ -2104,7 +2112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="27">
         <v>1007</v>
       </c>
@@ -2154,7 +2162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="27">
         <v>1008</v>
       </c>
@@ -2206,7 +2214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="27">
         <v>1009</v>
       </c>
@@ -2258,7 +2266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="27">
         <v>1010</v>
       </c>
@@ -2310,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="27">
         <v>1011</v>
       </c>
@@ -2362,7 +2370,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="27">
         <v>1012</v>
       </c>
@@ -2414,7 +2422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="27">
         <v>1013</v>
       </c>
@@ -2466,7 +2474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="27">
         <v>1015</v>
       </c>
@@ -2518,7 +2526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="27">
         <v>1016</v>
       </c>
@@ -2570,7 +2578,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="27">
         <v>1017</v>
       </c>
@@ -2620,7 +2628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="27">
         <v>1018</v>
       </c>
@@ -2672,7 +2680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="27">
         <v>1019</v>
       </c>
@@ -2724,7 +2732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="27">
         <v>1021</v>
       </c>
@@ -2776,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="27">
         <v>1022</v>
       </c>
@@ -2828,7 +2836,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="27">
         <v>1024</v>
       </c>
@@ -2878,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="27">
         <v>1025</v>
       </c>
@@ -2930,7 +2938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="27">
         <v>1026</v>
       </c>
@@ -2982,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="27">
         <v>1027</v>
       </c>
@@ -3032,7 +3040,7 @@
       </c>
       <c r="P24" s="32"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="27">
         <v>1028</v>
       </c>
@@ -3084,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="27">
         <v>1029</v>
       </c>
@@ -3136,7 +3144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="27">
         <v>1030</v>
       </c>
@@ -3188,7 +3196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="27">
         <v>1031</v>
       </c>
@@ -3240,7 +3248,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="27">
         <v>1032</v>
       </c>
@@ -3292,7 +3300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="27">
         <v>1033</v>
       </c>
@@ -3344,7 +3352,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="27">
         <v>1034</v>
       </c>
@@ -3396,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="27">
         <v>1035</v>
       </c>
@@ -3448,7 +3456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="27">
         <v>1036</v>
       </c>
@@ -3498,7 +3506,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="27">
         <v>1037</v>
       </c>
@@ -3550,7 +3558,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="27">
         <v>1038</v>
       </c>
@@ -3602,7 +3610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>1039</v>
       </c>
@@ -3654,7 +3662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
         <v>1040</v>
       </c>
@@ -3704,7 +3712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="27">
         <v>1041</v>
       </c>
@@ -3756,7 +3764,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="27">
         <v>1042</v>
       </c>
@@ -3808,7 +3816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="27">
         <v>1043</v>
       </c>
@@ -3860,7 +3868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="27">
         <v>1044</v>
       </c>
@@ -3908,7 +3916,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="27">
         <v>1045</v>
       </c>
@@ -3960,7 +3968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="27">
         <v>1046</v>
       </c>
@@ -4010,7 +4018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="27">
         <v>1047</v>
       </c>
@@ -4062,7 +4070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A45" s="27">
         <v>1048</v>
       </c>
@@ -4114,7 +4122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="27">
         <v>1049</v>
       </c>
@@ -4166,7 +4174,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="27">
         <v>1050</v>
       </c>
@@ -4218,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="27">
         <v>1051</v>
       </c>
@@ -4268,7 +4276,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="27">
         <v>1053</v>
       </c>
@@ -4318,7 +4326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="27">
         <v>1054</v>
       </c>
@@ -4370,7 +4378,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="27">
         <v>1055</v>
       </c>
@@ -4422,7 +4430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="27">
         <v>1056</v>
       </c>
@@ -4474,7 +4482,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="27">
         <v>1057</v>
       </c>
@@ -4526,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="27">
         <v>1058</v>
       </c>
@@ -4578,7 +4586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="27">
         <v>1059</v>
       </c>
@@ -4628,7 +4636,7 @@
       </c>
       <c r="P55" s="33"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="27">
         <v>1060</v>
       </c>
@@ -4680,7 +4688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="27">
         <v>1061</v>
       </c>
@@ -4732,7 +4740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="27">
         <v>1062</v>
       </c>
@@ -4784,7 +4792,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="27">
         <v>1063</v>
       </c>
@@ -4836,7 +4844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="27">
         <v>1064</v>
       </c>
@@ -4888,7 +4896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="27">
         <v>1065</v>
       </c>
@@ -4940,7 +4948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="27">
         <v>1066</v>
       </c>
@@ -4992,7 +5000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A63" s="27">
         <v>1067</v>
       </c>
@@ -5042,7 +5050,7 @@
       </c>
       <c r="P63" s="32"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A64" s="27">
         <v>1068</v>
       </c>
@@ -5092,7 +5100,7 @@
       </c>
       <c r="P64" s="32"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="27">
         <v>1069</v>
       </c>
@@ -5144,7 +5152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="27">
         <v>1070</v>
       </c>
@@ -5196,7 +5204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="27">
         <v>1071</v>
       </c>
@@ -5248,7 +5256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A68" s="27">
         <v>1072</v>
       </c>
@@ -5298,7 +5306,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A69" s="27">
         <v>1073</v>
       </c>
@@ -5350,7 +5358,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A70" s="27">
         <v>1074</v>
       </c>
@@ -5402,7 +5410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A71" s="27">
         <v>1075</v>
       </c>
@@ -5454,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="27">
         <v>1077</v>
       </c>
@@ -5506,7 +5514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="27">
         <v>1078</v>
       </c>
@@ -5558,7 +5566,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A74" s="27">
         <v>1081</v>
       </c>
@@ -5608,7 +5616,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="27">
         <v>1082</v>
       </c>
@@ -5660,7 +5668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="27">
         <v>1083</v>
       </c>
@@ -5712,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A77" s="27">
         <v>1084</v>
       </c>
@@ -5764,7 +5772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A78" s="27">
         <v>1085</v>
       </c>
@@ -5816,7 +5824,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A79" s="27">
         <v>1086</v>
       </c>
@@ -5868,7 +5876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A80" s="27">
         <v>1087</v>
       </c>
@@ -5918,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A81" s="27">
         <v>1088</v>
       </c>
@@ -5970,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A82" s="27">
         <v>1089</v>
       </c>
@@ -6022,7 +6030,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A83" s="27">
         <v>1090</v>
       </c>
@@ -6074,7 +6082,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" s="27">
         <v>1091</v>
       </c>
@@ -6126,7 +6134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" s="27">
         <v>1092</v>
       </c>
@@ -6178,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A86" s="27">
         <v>1093</v>
       </c>
@@ -6222,7 +6230,7 @@
       <c r="O86" s="31"/>
       <c r="P86" s="31"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A87" s="27">
         <v>1094</v>
       </c>
@@ -6272,7 +6280,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A88" s="27">
         <v>1095</v>
       </c>
@@ -6324,7 +6332,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A89" s="27">
         <v>1096</v>
       </c>
@@ -6376,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A90" s="27">
         <v>1097</v>
       </c>
@@ -6428,7 +6436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A91" s="27">
         <v>1098</v>
       </c>
@@ -6480,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A92" s="27">
         <v>1099</v>
       </c>
@@ -6532,7 +6540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A93" s="27">
         <v>1100</v>
       </c>
@@ -6584,7 +6592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A94" s="27">
         <v>1101</v>
       </c>
@@ -6636,7 +6644,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A95" s="27">
         <v>1102</v>
       </c>
@@ -6688,7 +6696,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A96" s="27">
         <v>1103</v>
       </c>
@@ -6740,7 +6748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A97" s="27">
         <v>1104</v>
       </c>
@@ -6790,7 +6798,7 @@
       </c>
       <c r="P97" s="33"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A98" s="27">
         <v>1106</v>
       </c>
@@ -6842,7 +6850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A99" s="27">
         <v>1107</v>
       </c>
@@ -6894,7 +6902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A100" s="27">
         <v>1109</v>
       </c>
@@ -6946,7 +6954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A101" s="27">
         <v>1110</v>
       </c>
@@ -6998,7 +7006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A102" s="27">
         <v>1111</v>
       </c>
@@ -7050,7 +7058,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A103" s="27">
         <v>1112</v>
       </c>
@@ -7102,7 +7110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A104" s="27">
         <v>1113</v>
       </c>
@@ -7154,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A105" s="27">
         <v>1114</v>
       </c>
@@ -7206,7 +7214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A106" s="27">
         <v>1115</v>
       </c>
@@ -7258,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A107" s="27">
         <v>1116</v>
       </c>
@@ -7310,7 +7318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A108" s="27">
         <v>1117</v>
       </c>
@@ -7362,7 +7370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A109" s="27">
         <v>1118</v>
       </c>
@@ -7414,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A110" s="27">
         <v>1120</v>
       </c>
@@ -7464,7 +7472,7 @@
       </c>
       <c r="P110" s="32"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A111" s="27">
         <v>1121</v>
       </c>
@@ -7516,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A112" s="27">
         <v>1122</v>
       </c>
@@ -7568,7 +7576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A113" s="27">
         <v>1123</v>
       </c>
@@ -7620,7 +7628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A114" s="27">
         <v>1124</v>
       </c>
@@ -7672,7 +7680,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A115" s="27">
         <v>1125</v>
       </c>
@@ -7724,7 +7732,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A116" s="27">
         <v>1126</v>
       </c>
@@ -7774,7 +7782,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A117" s="27">
         <v>1127</v>
       </c>
@@ -7826,7 +7834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A118" s="27">
         <v>1128</v>
       </c>
@@ -7878,7 +7886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A119" s="27">
         <v>1129</v>
       </c>
@@ -7930,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A120" s="27">
         <v>1130</v>
       </c>
@@ -7982,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A121" s="27">
         <v>1132</v>
       </c>
@@ -8034,7 +8042,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A122" s="27">
         <v>1134</v>
       </c>
@@ -8086,7 +8094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A123" s="27">
         <v>1135</v>
       </c>
@@ -8138,7 +8146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A124" s="27">
         <v>1136</v>
       </c>
@@ -8190,7 +8198,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A125" s="27">
         <v>1137</v>
       </c>
@@ -8242,7 +8250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A126" s="27">
         <v>1138</v>
       </c>
@@ -8294,7 +8302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A127" s="27">
         <v>1139</v>
       </c>
@@ -8346,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A128" s="27">
         <v>1140</v>
       </c>
@@ -8396,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A129" s="27">
         <v>1141</v>
       </c>
@@ -8448,7 +8456,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A130" s="27">
         <v>1142</v>
       </c>
@@ -8498,7 +8506,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A131" s="27">
         <v>1143</v>
       </c>
@@ -8548,7 +8556,7 @@
       </c>
       <c r="P131" s="32"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A132" s="27">
         <v>1144</v>
       </c>
@@ -8598,7 +8606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A133" s="27">
         <v>1145</v>
       </c>
@@ -8648,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A134" s="27">
         <v>1146</v>
       </c>
@@ -8700,7 +8708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A135" s="27">
         <v>1147</v>
       </c>
@@ -8752,7 +8760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A136" s="27">
         <v>1148</v>
       </c>
@@ -8804,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A137" s="27">
         <v>1149</v>
       </c>
@@ -8856,7 +8864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A138" s="27">
         <v>1150</v>
       </c>
@@ -8908,7 +8916,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A139" s="27">
         <v>1151</v>
       </c>
@@ -8960,7 +8968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A140" s="27">
         <v>1152</v>
       </c>
@@ -9012,7 +9020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A141" s="27">
         <v>1154</v>
       </c>
@@ -9064,7 +9072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A142" s="27">
         <v>1155</v>
       </c>
@@ -9116,7 +9124,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A143" s="27">
         <v>1156</v>
       </c>
@@ -9168,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A144" s="27">
         <v>1157</v>
       </c>
@@ -9220,7 +9228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A145" s="27">
         <v>1158</v>
       </c>
@@ -9272,7 +9280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A146" s="27">
         <v>1159</v>
       </c>
@@ -9313,7 +9321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A147" s="27">
         <v>1160</v>
       </c>
@@ -9363,7 +9371,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A148" s="27">
         <v>1161</v>
       </c>
@@ -9415,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A149" s="27">
         <v>1162</v>
       </c>
@@ -9467,7 +9475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A150" s="27">
         <v>1163</v>
       </c>
@@ -9519,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A151" s="27">
         <v>1164</v>
       </c>
@@ -9571,7 +9579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A152" s="27">
         <v>1165</v>
       </c>
@@ -9623,7 +9631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A153" s="27">
         <v>1166</v>
       </c>
@@ -9675,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A154" s="27">
         <v>1167</v>
       </c>
@@ -9727,7 +9735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A155" s="27">
         <v>1168</v>
       </c>
@@ -9779,7 +9787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A156" s="27">
         <v>1169</v>
       </c>
@@ -9831,7 +9839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A157" s="27">
         <v>1170</v>
       </c>
@@ -9883,7 +9891,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A158" s="27">
         <v>1171</v>
       </c>
@@ -9935,7 +9943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A159" s="27">
         <v>1172</v>
       </c>
@@ -9987,7 +9995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A160" s="27">
         <v>1173</v>
       </c>
@@ -10026,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A161" s="27">
         <v>1174</v>
       </c>
@@ -10078,7 +10086,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A162" s="27">
         <v>1175</v>
       </c>
@@ -10130,7 +10138,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A163" s="27">
         <v>1176</v>
       </c>
@@ -10178,7 +10186,7 @@
       <c r="O163" s="32"/>
       <c r="P163" s="32"/>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A164" s="27">
         <v>1177</v>
       </c>
@@ -10230,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A165" s="27">
         <v>1179</v>
       </c>
@@ -10282,7 +10290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A166" s="27">
         <v>1180</v>
       </c>
@@ -10334,7 +10342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A167" s="27">
         <v>1181</v>
       </c>
@@ -10386,7 +10394,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A168" s="27">
         <v>1182</v>
       </c>
@@ -10438,7 +10446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A169" s="27">
         <v>1183</v>
       </c>
@@ -10490,7 +10498,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A170" s="27">
         <v>1184</v>
       </c>
@@ -10542,7 +10550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A171" s="27">
         <v>1185</v>
       </c>
@@ -10594,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A172" s="27">
         <v>1187</v>
       </c>
@@ -10646,7 +10654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A173" s="27">
         <v>1188</v>
       </c>
@@ -10698,7 +10706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A174" s="27">
         <v>1189</v>
       </c>
@@ -10750,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A175" s="27">
         <v>1191</v>
       </c>
@@ -10802,7 +10810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A176" s="27">
         <v>1192</v>
       </c>
@@ -10850,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A177" s="27">
         <v>1193</v>
       </c>
@@ -10902,7 +10910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A178" s="27">
         <v>1194</v>
       </c>
@@ -10954,7 +10962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A179" s="27">
         <v>1196</v>
       </c>
@@ -11006,7 +11014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A180" s="27">
         <v>1197</v>
       </c>
@@ -11058,7 +11066,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A181" s="27">
         <v>1198</v>
       </c>
@@ -11110,7 +11118,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A182" s="27">
         <v>1199</v>
       </c>
@@ -11162,7 +11170,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A183" s="27">
         <v>1200</v>
       </c>
@@ -11214,7 +11222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A184" s="27">
         <v>1201</v>
       </c>
@@ -11266,7 +11274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A185" s="27">
         <v>1202</v>
       </c>
@@ -11318,7 +11326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A186" s="27">
         <v>1203</v>
       </c>
@@ -11370,7 +11378,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A187" s="27">
         <v>1204</v>
       </c>
@@ -11422,7 +11430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A188" s="27">
         <v>1205</v>
       </c>
@@ -11474,7 +11482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A189" s="27">
         <v>1206</v>
       </c>
@@ -11526,7 +11534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A190" s="27">
         <v>1207</v>
       </c>
@@ -11578,7 +11586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A191" s="27">
         <v>1208</v>
       </c>
@@ -11628,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A192" s="27">
         <v>1209</v>
       </c>
@@ -11680,7 +11688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A193" s="27">
         <v>1210</v>
       </c>
@@ -11732,7 +11740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A194" s="27">
         <v>1211</v>
       </c>
@@ -11784,7 +11792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A195" s="27">
         <v>1212</v>
       </c>
@@ -11834,7 +11842,7 @@
       </c>
       <c r="P195" s="33"/>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A196" s="27">
         <v>1213</v>
       </c>
@@ -11886,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A197" s="27">
         <v>1214</v>
       </c>
@@ -11938,7 +11946,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A198" s="27">
         <v>1215</v>
       </c>
@@ -11982,7 +11990,7 @@
       <c r="O198" s="31"/>
       <c r="P198" s="31"/>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A199" s="27">
         <v>1216</v>
       </c>
@@ -12034,7 +12042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A200" s="27">
         <v>1217</v>
       </c>
@@ -12086,7 +12094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A201" s="27">
         <v>1218</v>
       </c>
@@ -12138,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A202" s="27">
         <v>1219</v>
       </c>
@@ -12188,7 +12196,7 @@
       </c>
       <c r="P202" s="32"/>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A203" s="27">
         <v>1220</v>
       </c>
@@ -12240,7 +12248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A204" s="27">
         <v>1221</v>
       </c>
@@ -12292,7 +12300,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A205" s="27">
         <v>1222</v>
       </c>
@@ -12344,7 +12352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A206" s="27">
         <v>1223</v>
       </c>
@@ -12396,7 +12404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A207" s="27">
         <v>1224</v>
       </c>
@@ -12448,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A208" s="27">
         <v>1225</v>
       </c>
@@ -12500,7 +12508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A209" s="27">
         <v>1226</v>
       </c>
@@ -12552,7 +12560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A210" s="27">
         <v>1227</v>
       </c>
@@ -12602,7 +12610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A211" s="27">
         <v>1228</v>
       </c>
@@ -12654,7 +12662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A212" s="27">
         <v>1229</v>
       </c>
@@ -12706,7 +12714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A213" s="27">
         <v>1230</v>
       </c>
@@ -12758,7 +12766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A214" s="27">
         <v>1231</v>
       </c>
@@ -12808,7 +12816,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A215" s="27">
         <v>1232</v>
       </c>
@@ -12860,7 +12868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A216" s="27">
         <v>1233</v>
       </c>
@@ -12912,7 +12920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A217" s="27">
         <v>1234</v>
       </c>
@@ -12964,7 +12972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A218" s="27">
         <v>1235</v>
       </c>
@@ -13016,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A219" s="27">
         <v>1236</v>
       </c>
@@ -13068,7 +13076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A220" s="27">
         <v>1237</v>
       </c>
@@ -13120,7 +13128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A221" s="27">
         <v>1238</v>
       </c>
@@ -13166,7 +13174,7 @@
       <c r="O221" s="32"/>
       <c r="P221" s="32"/>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A222" s="27">
         <v>1239</v>
       </c>
@@ -13218,7 +13226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K223" s="30"/>
       <c r="L223" s="30"/>
       <c r="M223" s="34"/>
@@ -13230,11 +13238,6 @@
   <sheetProtection password="EFDD" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="0.75" top="0" bottom="0" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13242,11 +13245,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
@@ -13254,33 +13257,33 @@
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15">
+    <row r="1" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="15">
+    <row r="2" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15">
+    <row r="3" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="2:4" ht="15">
+    <row r="4" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15">
+    <row r="5" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="2:4" ht="15">
+    <row r="6" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" s="21" customFormat="1" ht="36">
+    <row r="7" spans="2:4" s="21" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
         <v>44</v>
       </c>
@@ -13288,13 +13291,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15">
+    <row r="8" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="2:4" ht="16" thickBot="1">
+    <row r="9" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="2:4" ht="31" thickBot="1">
+    <row r="10" spans="2:4" ht="33" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -13305,75 +13308,75 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="74" customHeight="1">
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="60" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="16" thickBot="1">
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+    <row r="12" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="74" customHeight="1">
-      <c r="B13" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="37" t="s">
+    <row r="13" spans="2:4" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="63" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="16" thickBot="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+    <row r="14" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15">
-      <c r="B15" s="35" t="s">
+    <row r="15" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B15" s="60" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15">
-      <c r="B16" s="39"/>
+    <row r="16" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B16" s="61"/>
       <c r="C16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="39"/>
-    </row>
-    <row r="17" spans="2:4" ht="15">
-      <c r="B17" s="39"/>
+      <c r="D16" s="61"/>
+    </row>
+    <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B17" s="61"/>
       <c r="C17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="39"/>
-    </row>
-    <row r="18" spans="2:4" ht="16" thickBot="1">
-      <c r="B18" s="36"/>
+      <c r="D17" s="61"/>
+    </row>
+    <row r="18" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="62"/>
       <c r="C18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="36"/>
-    </row>
-    <row r="19" spans="2:4" ht="31" thickBot="1">
+      <c r="D18" s="62"/>
+    </row>
+    <row r="19" spans="2:4" ht="33" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="18" t="s">
         <v>25</v>
       </c>
@@ -13384,7 +13387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="61" thickBot="1">
+    <row r="20" spans="2:4" ht="65" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
         <v>1</v>
       </c>
@@ -13395,116 +13398,121 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30">
-      <c r="B21" s="37" t="s">
+    <row r="21" spans="2:4" ht="32" x14ac:dyDescent="0.15">
+      <c r="B21" s="63" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="16" thickBot="1">
-      <c r="B22" s="38"/>
+    <row r="22" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="64"/>
       <c r="C22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="36"/>
-    </row>
-    <row r="23" spans="2:4" ht="16" thickBot="1">
+      <c r="D22" s="62"/>
+    </row>
+    <row r="23" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="2:4" ht="60">
-      <c r="B24" s="35" t="s">
+    <row r="24" spans="2:4" ht="64" x14ac:dyDescent="0.15">
+      <c r="B24" s="60" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15">
-      <c r="B25" s="39"/>
+    <row r="25" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B25" s="61"/>
       <c r="C25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="39"/>
-    </row>
-    <row r="26" spans="2:4" ht="15">
-      <c r="B26" s="39"/>
+      <c r="D25" s="61"/>
+    </row>
+    <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B26" s="61"/>
       <c r="C26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="39"/>
-    </row>
-    <row r="27" spans="2:4" ht="16" thickBot="1">
-      <c r="B27" s="36"/>
+      <c r="D26" s="61"/>
+    </row>
+    <row r="27" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="62"/>
       <c r="C27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="36"/>
-    </row>
-    <row r="28" spans="2:4" ht="15">
-      <c r="B28" s="35" t="s">
+      <c r="D27" s="62"/>
+    </row>
+    <row r="28" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B28" s="60" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15">
-      <c r="B29" s="39"/>
+    <row r="29" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B29" s="61"/>
       <c r="C29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="39"/>
-    </row>
-    <row r="30" spans="2:4" ht="15">
-      <c r="B30" s="39"/>
+      <c r="D29" s="61"/>
+    </row>
+    <row r="30" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B30" s="61"/>
       <c r="C30" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="39"/>
-    </row>
-    <row r="31" spans="2:4" ht="15">
-      <c r="B31" s="39"/>
+      <c r="D30" s="61"/>
+    </row>
+    <row r="31" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B31" s="61"/>
       <c r="C31" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="39"/>
-    </row>
-    <row r="32" spans="2:4" ht="15">
-      <c r="B32" s="39"/>
+      <c r="D31" s="61"/>
+    </row>
+    <row r="32" spans="2:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="B32" s="61"/>
       <c r="C32" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="39"/>
-    </row>
-    <row r="33" spans="2:4" ht="16" thickBot="1">
-      <c r="B33" s="36"/>
+      <c r="D32" s="61"/>
+    </row>
+    <row r="33" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="62"/>
       <c r="C33" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="36"/>
-    </row>
-    <row r="34" spans="2:4" ht="15">
+      <c r="D33" s="62"/>
+    </row>
+    <row r="34" spans="2:4" ht="16" x14ac:dyDescent="0.15">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="2:4" ht="13">
+    <row r="35" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="17"/>
     </row>
-    <row r="36" spans="2:4" ht="13">
+    <row r="36" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="D28:D33"/>
     <mergeCell ref="D15:D18"/>
@@ -13512,18 +13520,8 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13538,7 +13536,7 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
@@ -13550,7 +13548,7 @@
     <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="58" customHeight="1">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>43</v>
       </c>
@@ -13576,7 +13574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -13602,7 +13600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -13628,7 +13626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -13654,7 +13652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -13678,7 +13676,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -13702,7 +13700,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1007</v>
       </c>
@@ -13728,7 +13726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1008</v>
       </c>
@@ -13754,7 +13752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1009</v>
       </c>
@@ -13780,7 +13778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1010</v>
       </c>
@@ -13806,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1011</v>
       </c>
@@ -13832,7 +13830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1012</v>
       </c>
@@ -13858,7 +13856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1013</v>
       </c>
@@ -13884,7 +13882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1015</v>
       </c>
@@ -13910,7 +13908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1016</v>
       </c>
@@ -13936,7 +13934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1017</v>
       </c>
@@ -13962,7 +13960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1018</v>
       </c>
@@ -13986,7 +13984,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1019</v>
       </c>
@@ -14012,7 +14010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1021</v>
       </c>
@@ -14038,7 +14036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1022</v>
       </c>
@@ -14064,7 +14062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1024</v>
       </c>
@@ -14090,7 +14088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1025</v>
       </c>
@@ -14112,7 +14110,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1026</v>
       </c>
@@ -14138,7 +14136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1027</v>
       </c>
@@ -14164,7 +14162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1028</v>
       </c>
@@ -14188,7 +14186,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1029</v>
       </c>
@@ -14214,7 +14212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1030</v>
       </c>
@@ -14240,7 +14238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1031</v>
       </c>
@@ -14264,7 +14262,7 @@
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1032</v>
       </c>
@@ -14290,7 +14288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1033</v>
       </c>
@@ -14316,7 +14314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1034</v>
       </c>
@@ -14342,7 +14340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1035</v>
       </c>
@@ -14364,7 +14362,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1036</v>
       </c>
@@ -14390,7 +14388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1037</v>
       </c>
@@ -14416,7 +14414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1038</v>
       </c>
@@ -14442,7 +14440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1039</v>
       </c>
@@ -14468,7 +14466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1040</v>
       </c>
@@ -14494,7 +14492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1041</v>
       </c>
@@ -14520,7 +14518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1042</v>
       </c>
@@ -14546,7 +14544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1043</v>
       </c>
@@ -14572,7 +14570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1044</v>
       </c>
@@ -14598,7 +14596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1045</v>
       </c>
@@ -14624,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1046</v>
       </c>
@@ -14650,7 +14648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1047</v>
       </c>
@@ -14676,7 +14674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1048</v>
       </c>
@@ -14702,7 +14700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1049</v>
       </c>
@@ -14728,7 +14726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1050</v>
       </c>
@@ -14754,7 +14752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1051</v>
       </c>
@@ -14780,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1053</v>
       </c>
@@ -14806,7 +14804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1054</v>
       </c>
@@ -14832,7 +14830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1055</v>
       </c>
@@ -14858,7 +14856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1056</v>
       </c>
@@ -14884,7 +14882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1057</v>
       </c>
@@ -14910,7 +14908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1058</v>
       </c>
@@ -14936,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1059</v>
       </c>
@@ -14962,7 +14960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1060</v>
       </c>
@@ -14988,7 +14986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1061</v>
       </c>
@@ -15014,7 +15012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1062</v>
       </c>
@@ -15040,7 +15038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1063</v>
       </c>
@@ -15066,7 +15064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1064</v>
       </c>
@@ -15088,7 +15086,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1065</v>
       </c>
@@ -15114,7 +15112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1066</v>
       </c>
@@ -15140,7 +15138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1067</v>
       </c>
@@ -15162,7 +15160,7 @@
       <c r="G63" s="5"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1068</v>
       </c>
@@ -15188,7 +15186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1069</v>
       </c>
@@ -15214,7 +15212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1070</v>
       </c>
@@ -15240,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1071</v>
       </c>
@@ -15266,7 +15264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1072</v>
       </c>
@@ -15292,7 +15290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>1073</v>
       </c>
@@ -15318,7 +15316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>1074</v>
       </c>
@@ -15344,7 +15342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>1075</v>
       </c>
@@ -15370,7 +15368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>1077</v>
       </c>
@@ -15396,7 +15394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>1078</v>
       </c>
@@ -15422,7 +15420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1081</v>
       </c>
@@ -15448,7 +15446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>1082</v>
       </c>
@@ -15474,7 +15472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>1083</v>
       </c>
@@ -15500,7 +15498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1084</v>
       </c>
@@ -15526,7 +15524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>1085</v>
       </c>
@@ -15552,7 +15550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>1086</v>
       </c>
@@ -15578,7 +15576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>1087</v>
       </c>
@@ -15604,7 +15602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>1088</v>
       </c>
@@ -15630,7 +15628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>1089</v>
       </c>
@@ -15656,7 +15654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>1090</v>
       </c>
@@ -15682,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>1091</v>
       </c>
@@ -15708,7 +15706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>1092</v>
       </c>
@@ -15734,7 +15732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>1093</v>
       </c>
@@ -15760,7 +15758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>1094</v>
       </c>
@@ -15786,7 +15784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>1095</v>
       </c>
@@ -15812,7 +15810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>1096</v>
       </c>
@@ -15838,7 +15836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>1097</v>
       </c>
@@ -15864,7 +15862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>1098</v>
       </c>
@@ -15890,7 +15888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>1099</v>
       </c>
@@ -15916,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>1100</v>
       </c>
@@ -15942,7 +15940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>1101</v>
       </c>
@@ -15968,7 +15966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>1102</v>
       </c>
@@ -15994,7 +15992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>1103</v>
       </c>
@@ -16020,7 +16018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>1104</v>
       </c>
@@ -16046,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>1106</v>
       </c>
@@ -16072,7 +16070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>1107</v>
       </c>
@@ -16098,7 +16096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1109</v>
       </c>
@@ -16124,7 +16122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>1110</v>
       </c>
@@ -16150,7 +16148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>1111</v>
       </c>
@@ -16176,7 +16174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>1112</v>
       </c>
@@ -16202,7 +16200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>1113</v>
       </c>
@@ -16228,7 +16226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>1114</v>
       </c>
@@ -16254,7 +16252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>1115</v>
       </c>
@@ -16280,7 +16278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>1116</v>
       </c>
@@ -16306,7 +16304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>1117</v>
       </c>
@@ -16332,7 +16330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>1118</v>
       </c>
@@ -16358,7 +16356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>1120</v>
       </c>
@@ -16380,7 +16378,7 @@
       <c r="G110" s="5"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>1121</v>
       </c>
@@ -16406,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>1122</v>
       </c>
@@ -16432,7 +16430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>1123</v>
       </c>
@@ -16458,7 +16456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>1124</v>
       </c>
@@ -16484,7 +16482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>1125</v>
       </c>
@@ -16510,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>1126</v>
       </c>
@@ -16536,7 +16534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>1127</v>
       </c>
@@ -16562,7 +16560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>1128</v>
       </c>
@@ -16588,7 +16586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>1129</v>
       </c>
@@ -16614,7 +16612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>1130</v>
       </c>
@@ -16640,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>1132</v>
       </c>
@@ -16666,7 +16664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>1134</v>
       </c>
@@ -16692,7 +16690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>1135</v>
       </c>
@@ -16718,7 +16716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>1136</v>
       </c>
@@ -16744,7 +16742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>1137</v>
       </c>
@@ -16770,7 +16768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>1138</v>
       </c>
@@ -16796,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>1139</v>
       </c>
@@ -16822,7 +16820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>1140</v>
       </c>
@@ -16848,7 +16846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>1141</v>
       </c>
@@ -16874,7 +16872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>1142</v>
       </c>
@@ -16900,7 +16898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>1143</v>
       </c>
@@ -16924,7 +16922,7 @@
       </c>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>1144</v>
       </c>
@@ -16950,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>1145</v>
       </c>
@@ -16976,7 +16974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>1146</v>
       </c>
@@ -17002,7 +17000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>1147</v>
       </c>
@@ -17028,7 +17026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>1148</v>
       </c>
@@ -17054,7 +17052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>1149</v>
       </c>
@@ -17080,7 +17078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>1150</v>
       </c>
@@ -17106,7 +17104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>1151</v>
       </c>
@@ -17132,7 +17130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>1152</v>
       </c>
@@ -17158,7 +17156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>1154</v>
       </c>
@@ -17184,7 +17182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>1155</v>
       </c>
@@ -17210,7 +17208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>1156</v>
       </c>
@@ -17236,7 +17234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>1157</v>
       </c>
@@ -17262,7 +17260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>1158</v>
       </c>
@@ -17288,7 +17286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>1159</v>
       </c>
@@ -17314,7 +17312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>1160</v>
       </c>
@@ -17338,7 +17336,7 @@
       </c>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>1161</v>
       </c>
@@ -17364,7 +17362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>1162</v>
       </c>
@@ -17390,7 +17388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>1163</v>
       </c>
@@ -17416,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>1164</v>
       </c>
@@ -17442,7 +17440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>1165</v>
       </c>
@@ -17468,7 +17466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>1166</v>
       </c>
@@ -17494,7 +17492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>1167</v>
       </c>
@@ -17518,7 +17516,7 @@
       </c>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>1168</v>
       </c>
@@ -17544,7 +17542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>1169</v>
       </c>
@@ -17570,7 +17568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>1170</v>
       </c>
@@ -17596,7 +17594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>1171</v>
       </c>
@@ -17622,7 +17620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>1172</v>
       </c>
@@ -17648,7 +17646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>1173</v>
       </c>
@@ -17674,7 +17672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>1174</v>
       </c>
@@ -17700,7 +17698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>1175</v>
       </c>
@@ -17726,7 +17724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>1176</v>
       </c>
@@ -17752,7 +17750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>1177</v>
       </c>
@@ -17778,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>1179</v>
       </c>
@@ -17804,7 +17802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>1180</v>
       </c>
@@ -17830,7 +17828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>1181</v>
       </c>
@@ -17856,7 +17854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>1182</v>
       </c>
@@ -17880,7 +17878,7 @@
       </c>
       <c r="H168" s="3"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>1183</v>
       </c>
@@ -17906,7 +17904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>1184</v>
       </c>
@@ -17930,7 +17928,7 @@
       </c>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>1185</v>
       </c>
@@ -17956,7 +17954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>1187</v>
       </c>
@@ -17982,7 +17980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>1188</v>
       </c>
@@ -18008,7 +18006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>1189</v>
       </c>
@@ -18034,7 +18032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>1191</v>
       </c>
@@ -18060,7 +18058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>1192</v>
       </c>
@@ -18086,7 +18084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>1193</v>
       </c>
@@ -18112,7 +18110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>1194</v>
       </c>
@@ -18138,7 +18136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>1196</v>
       </c>
@@ -18164,7 +18162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>1197</v>
       </c>
@@ -18190,7 +18188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>1198</v>
       </c>
@@ -18216,7 +18214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>1199</v>
       </c>
@@ -18242,7 +18240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>1200</v>
       </c>
@@ -18268,7 +18266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>1201</v>
       </c>
@@ -18294,7 +18292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>1202</v>
       </c>
@@ -18320,7 +18318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>1203</v>
       </c>
@@ -18344,7 +18342,7 @@
       </c>
       <c r="H186" s="3"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>1204</v>
       </c>
@@ -18370,7 +18368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>1205</v>
       </c>
@@ -18392,7 +18390,7 @@
       <c r="G188" s="5"/>
       <c r="H188" s="3"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>1206</v>
       </c>
@@ -18418,7 +18416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>1207</v>
       </c>
@@ -18444,7 +18442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>1208</v>
       </c>
@@ -18470,7 +18468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>1209</v>
       </c>
@@ -18496,7 +18494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>1210</v>
       </c>
@@ -18522,7 +18520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>1211</v>
       </c>
@@ -18548,7 +18546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>1212</v>
       </c>
@@ -18574,7 +18572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>1213</v>
       </c>
@@ -18598,7 +18596,7 @@
       </c>
       <c r="H196" s="3"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>1214</v>
       </c>
@@ -18624,7 +18622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>1215</v>
       </c>
@@ -18650,7 +18648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>1216</v>
       </c>
@@ -18676,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>1217</v>
       </c>
@@ -18700,7 +18698,7 @@
       </c>
       <c r="H200" s="3"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>1218</v>
       </c>
@@ -18726,7 +18724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>1219</v>
       </c>
@@ -18752,7 +18750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>1220</v>
       </c>
@@ -18778,7 +18776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>1221</v>
       </c>
@@ -18804,7 +18802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>1222</v>
       </c>
@@ -18830,7 +18828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>1223</v>
       </c>
@@ -18856,7 +18854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>1224</v>
       </c>
@@ -18882,7 +18880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>1225</v>
       </c>
@@ -18908,7 +18906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>1226</v>
       </c>
@@ -18934,7 +18932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>1227</v>
       </c>
@@ -18960,7 +18958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>1228</v>
       </c>
@@ -18986,7 +18984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>1229</v>
       </c>
@@ -19012,7 +19010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>1230</v>
       </c>
@@ -19038,7 +19036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>1231</v>
       </c>
@@ -19064,7 +19062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>1232</v>
       </c>
@@ -19090,7 +19088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>1233</v>
       </c>
@@ -19116,7 +19114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>1234</v>
       </c>
@@ -19142,7 +19140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>1235</v>
       </c>
@@ -19168,7 +19166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>1236</v>
       </c>
@@ -19194,7 +19192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>1237</v>
       </c>
@@ -19220,7 +19218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>1238</v>
       </c>
@@ -19244,7 +19242,7 @@
       </c>
       <c r="H221" s="3"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>1239</v>
       </c>
@@ -19275,10 +19273,5 @@
   <autoFilter ref="A1:H226"/>
   <pageMargins left="0.75" right="0.75" top="0" bottom="0" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>